--- a/jsons/client_emails.xlsx
+++ b/jsons/client_emails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OmarAbdrabou\Desktop\TEST\test\jsons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D6D39A-9D58-4E84-BA98-46867CE1EBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F88DF92-13A1-418D-97EA-81D9BE1061FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{E0195F92-13C5-43CD-A693-96C4BC6C245B}"/>
   </bookViews>
@@ -107,9 +107,6 @@
     <t>GRUPPO CORIME</t>
   </si>
   <si>
-    <t>ANSE2000</t>
-  </si>
-  <si>
     <t>GEWA</t>
   </si>
   <si>
@@ -288,6 +285,9 @@
   <si>
     <t>gsalerno@svrsalerno.it,
 amministrazione@svrsalerno.it</t>
+  </si>
+  <si>
+    <t>ANSE 2000</t>
   </si>
 </sst>
 </file>
@@ -745,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2E2176-1AE0-4196-BAE1-CBA015F55892}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -773,7 +773,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -784,7 +784,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -806,7 +806,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -817,7 +817,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -828,7 +828,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -839,7 +839,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -850,7 +850,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -861,7 +861,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -872,7 +872,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -883,7 +883,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -905,7 +905,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -916,10 +916,10 @@
         <v>18</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.3">
@@ -927,10 +927,10 @@
         <v>19</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -938,10 +938,10 @@
         <v>20</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.3">
@@ -949,10 +949,10 @@
         <v>21</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.3">
@@ -960,219 +960,219 @@
         <v>22</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
